--- a/data/trans_dic/P14B23-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P14B23-Edad-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.01432513722865494</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.02789424801877079</v>
+        <v>0.02789424801877078</v>
       </c>
     </row>
     <row r="5">
@@ -681,25 +681,25 @@
         <v>0</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.00616289611545525</v>
+        <v>0.006577649323941415</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.009872188103987682</v>
+        <v>0.01146421505893552</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.01431249574051207</v>
+        <v>0.0149863235199498</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.0009212251342443944</v>
+        <v>0.0009266979007874357</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.006784192864945523</v>
+        <v>0.007350711666032774</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.01421097053882642</v>
+        <v>0.01394050037705504</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01091502894776384</v>
+        <v>0.00900339591822469</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.02172657500723053</v>
+        <v>0.01842227214541427</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.05536850380673855</v>
+        <v>0.05465673235463196</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.01392451658715468</v>
+        <v>0.01401546643100797</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.04360378506227847</v>
+        <v>0.04577761624040463</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.07014147375408845</v>
+        <v>0.07200606956032696</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.008794517162114832</v>
+        <v>0.009002527881171318</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.0259668061862611</v>
+        <v>0.02518483767903752</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.04895360939831495</v>
+        <v>0.04887027600348895</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.006923898754416385</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.03023079078344785</v>
+        <v>0.03023079078344786</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.00275352274981398</v>
+        <v>0.002732419737650557</v>
       </c>
       <c r="D8" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.005848982441731762</v>
+        <v>0.005276425398964286</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.01709939423596866</v>
+        <v>0.01582018228731422</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.004856271124196903</v>
+        <v>0.004816359018842645</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02840593722731251</v>
+        <v>0.02799964428893565</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0104777226207358</v>
+        <v>0.01105828748399006</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.00319995247035964</v>
+        <v>0.003299413508507729</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.01923290223435774</v>
+        <v>0.02026153637524463</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01533904893735006</v>
+        <v>0.01770625665744902</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.009825185001706946</v>
+        <v>0.01110925232373058</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.0339877386093195</v>
+        <v>0.03148845457279082</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.04706695193126701</v>
+        <v>0.04478762484467861</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.02243483327744676</v>
+        <v>0.02307174350663631</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.07121496959411232</v>
+        <v>0.06823188521004353</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.02496394715820462</v>
+        <v>0.0255349599720831</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.01299286207361164</v>
+        <v>0.01325273199373537</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.04415896623930445</v>
+        <v>0.04625242637404176</v>
       </c>
     </row>
     <row r="10">
@@ -882,7 +882,7 @@
         <v>0.02779933205674549</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>0.04561715541707588</v>
+        <v>0.04561715541707587</v>
       </c>
     </row>
     <row r="11">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.02270707334034356</v>
+        <v>0.02154722831204622</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.009309116943665728</v>
+        <v>0.009186337624306543</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.02389331108506957</v>
+        <v>0.0245859312809147</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.04907141049606757</v>
+        <v>0.04917483067505692</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.02691270129729976</v>
+        <v>0.02581740823649894</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.03864168854812967</v>
+        <v>0.0389375911346343</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.04144101082659814</v>
+        <v>0.04046702972459273</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.02008621165897946</v>
+        <v>0.01985445921370005</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.03460900749318357</v>
+        <v>0.03474831918772726</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.05462891679230689</v>
+        <v>0.05500069287043308</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.02899578349487556</v>
+        <v>0.03054114740775703</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.05843397020503017</v>
+        <v>0.05606704850045863</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.08731970142991595</v>
+        <v>0.08684262794867241</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.05658889611120928</v>
+        <v>0.05516149764205826</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.07022417424471873</v>
+        <v>0.06862096025672805</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.06661906972121233</v>
+        <v>0.06591775622626656</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.03729786614463925</v>
+        <v>0.03766205704645869</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.05734000211890498</v>
+        <v>0.05781481004467876</v>
       </c>
     </row>
     <row r="13">
@@ -982,7 +982,7 @@
         <v>0.0778823662957194</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.08451559212836936</v>
+        <v>0.08451559212836934</v>
       </c>
       <c r="I13" s="5" t="n">
         <v>0.05118913836582088</v>
@@ -991,7 +991,7 @@
         <v>0.05410236511766879</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.06730502801308313</v>
+        <v>0.06730502801308315</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.01465766852488137</v>
+        <v>0.01475930080979125</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.01915861917155189</v>
+        <v>0.01895882485976695</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.03524781778533793</v>
+        <v>0.03496323792715571</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.05721671200535204</v>
+        <v>0.05800905069782823</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.05776847219474546</v>
+        <v>0.05905177012260768</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.06782212584039744</v>
+        <v>0.06806572280346601</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.03939949180726659</v>
+        <v>0.0389339813952609</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.04225449503195036</v>
+        <v>0.04237659666988777</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.05529546886350289</v>
+        <v>0.05621798266071031</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04087600925838978</v>
+        <v>0.04485299376577702</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.04744160170002063</v>
+        <v>0.0459682042681826</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.06944683367239848</v>
+        <v>0.07074268416857045</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.1013378524037638</v>
+        <v>0.1053046062830672</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1032497697235626</v>
+        <v>0.1006544250380788</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1016790022758541</v>
+        <v>0.1008181753005339</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.06566143219233944</v>
+        <v>0.06559487809012637</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.06780347390284674</v>
+        <v>0.06778973003805153</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.0786880418302887</v>
+        <v>0.08023837161208359</v>
       </c>
     </row>
     <row r="16">
@@ -1091,7 +1091,7 @@
         <v>0.113710751358969</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.1181994690174577</v>
+        <v>0.1181994690174578</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.08910307312838915</v>
@@ -1100,7 +1100,7 @@
         <v>0.07656427479026251</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.08644445219249607</v>
+        <v>0.08644445219249608</v>
       </c>
     </row>
     <row r="17">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.02596608016652585</v>
+        <v>0.02590211456694243</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.02273596630949937</v>
+        <v>0.02159275783082475</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.03869872971915721</v>
+        <v>0.03860825036491965</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1040447681534653</v>
+        <v>0.1045842207577548</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.08931605729353793</v>
+        <v>0.08541110893830785</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1001753358100363</v>
+        <v>0.09977519495190845</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.07105983897826254</v>
+        <v>0.07095443398148299</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.06086378901350686</v>
+        <v>0.05898375088818963</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.07350854463468114</v>
+        <v>0.07317276653928347</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.06528773967145422</v>
+        <v>0.06543859667186476</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.0596701715180165</v>
+        <v>0.05990115116155512</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.07246579112191535</v>
+        <v>0.07454020545525193</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1693538971142814</v>
+        <v>0.1684273129336673</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1474083640884959</v>
+        <v>0.1477492391157989</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1398521881506661</v>
+        <v>0.1410887986668176</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.1084115666264991</v>
+        <v>0.1106328563937419</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.09717245356730726</v>
+        <v>0.09661032794883878</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.102022005036511</v>
+        <v>0.1006199002698197</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.01940187327872113</v>
+        <v>0.01699714120800623</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.00302838790304379</v>
+        <v>0.003040580318302174</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.01727454215095117</v>
+        <v>0.01722740214209883</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1145439431671618</v>
+        <v>0.1114340536937751</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.08200945536241468</v>
+        <v>0.0857504008128578</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.08381740976501295</v>
+        <v>0.0822598085107247</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.07566289917822033</v>
+        <v>0.07491764341446758</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.04976225492646234</v>
+        <v>0.04941667837505113</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.05439053717877838</v>
+        <v>0.0543179759708874</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.06590263936598074</v>
+        <v>0.06753213323592618</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.0291999321512276</v>
+        <v>0.02684020835010847</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.04533699785485605</v>
+        <v>0.04459301341101685</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.1894707477377909</v>
+        <v>0.1870492506896398</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.1482261141637038</v>
+        <v>0.1508523937317152</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.128684252299666</v>
+        <v>0.1249648767630977</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.1257968205337099</v>
+        <v>0.122254803313277</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.08685006503493865</v>
+        <v>0.08765796991163421</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.08125765553095385</v>
+        <v>0.08144497644886657</v>
       </c>
     </row>
     <row r="22">
@@ -1318,7 +1318,7 @@
         <v>0.08586560385286832</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>0.08750108054666668</v>
+        <v>0.08750108054666667</v>
       </c>
     </row>
     <row r="23">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.01713509348709765</v>
+        <v>0.01731483512552886</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.02204926616258211</v>
+        <v>0.02257455336658228</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.03404677059471208</v>
+        <v>0.03255530770326832</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1174100821076749</v>
+        <v>0.1187141581534508</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.0858828237734921</v>
+        <v>0.08363133407909513</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.0900389463160793</v>
+        <v>0.09066495381320044</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.08339856001511664</v>
+        <v>0.08353000749703542</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.06391755456125353</v>
+        <v>0.06413121671826751</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.07293608237958991</v>
+        <v>0.07309330697623051</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.07662389578915073</v>
+        <v>0.07311348362384323</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.06432329852362641</v>
+        <v>0.06450879705331218</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.08021287331053102</v>
+        <v>0.0765844743247039</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.193702031245341</v>
+        <v>0.189658305137431</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1546697838291037</v>
+        <v>0.1545980627278946</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.1358682541879337</v>
+        <v>0.1351356133408703</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.1360779320620178</v>
+        <v>0.136376294327837</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1130238197227892</v>
+        <v>0.1109281418632348</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1029238879639049</v>
+        <v>0.1049991543636698</v>
       </c>
     </row>
     <row r="25">
@@ -1427,7 +1427,7 @@
         <v>0.04392742366477541</v>
       </c>
       <c r="K25" s="5" t="n">
-        <v>0.05977510998432212</v>
+        <v>0.05977510998432211</v>
       </c>
     </row>
     <row r="26">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.01945285199492841</v>
+        <v>0.01947544663696105</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.01549782183132276</v>
+        <v>0.01485617203978425</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.0321017034585543</v>
+        <v>0.03161114073685194</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.07179618805041722</v>
+        <v>0.07041097629132298</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.05859270296704545</v>
+        <v>0.05909291470979196</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.07273186518229634</v>
+        <v>0.07331544755997914</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.04761473759596537</v>
+        <v>0.04769256339643078</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.03925549998180625</v>
+        <v>0.03865526240186772</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.05487092139409511</v>
+        <v>0.05406320808633589</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.03039364984553857</v>
+        <v>0.0311453661706941</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.02514246988506556</v>
+        <v>0.02446672067256133</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.04552545949502023</v>
+        <v>0.04594478447260101</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.0898058673947862</v>
+        <v>0.08983063821945649</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.07750208701818941</v>
+        <v>0.07693728137728899</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.08782080933619643</v>
+        <v>0.08859724223886213</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.05873279286566738</v>
+        <v>0.0586856323841033</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.04902330229248265</v>
+        <v>0.04904863553321134</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.06543208960991158</v>
+        <v>0.06472113825583961</v>
       </c>
     </row>
     <row r="28">
@@ -1735,25 +1735,25 @@
         <v>0</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>2513</v>
+        <v>2682</v>
       </c>
       <c r="F6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3907</v>
+        <v>4537</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5188</v>
+        <v>5433</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>815</v>
+        <v>820</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>5531</v>
+        <v>5992</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>10947</v>
+        <v>10738</v>
       </c>
     </row>
     <row r="7">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>4957</v>
+        <v>4089</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>9113</v>
+        <v>7727</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>22579</v>
+        <v>22289</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>5991</v>
+        <v>6030</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>17256</v>
+        <v>18117</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>25427</v>
+        <v>26103</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>7778</v>
+        <v>7962</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>21169</v>
+        <v>20531</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>37709</v>
+        <v>37645</v>
       </c>
     </row>
     <row r="8">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1892</v>
+        <v>1877</v>
       </c>
       <c r="D10" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>2789</v>
+        <v>2516</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>10435</v>
+        <v>9654</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>2737</v>
+        <v>2714</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>14252</v>
+        <v>14048</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>13593</v>
+        <v>14346</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>3693</v>
+        <v>3808</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>18822</v>
+        <v>19828</v>
       </c>
     </row>
     <row r="11">
@@ -1908,31 +1908,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>10539</v>
+        <v>12166</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>5802</v>
+        <v>6560</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>16208</v>
+        <v>15017</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>28723</v>
+        <v>27332</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>12643</v>
+        <v>13002</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>35731</v>
+        <v>34234</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>32387</v>
+        <v>33128</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>14994</v>
+        <v>15294</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>43215</v>
+        <v>45264</v>
       </c>
     </row>
     <row r="12">
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>15483</v>
+        <v>14692</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6229</v>
+        <v>6147</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>14834</v>
+        <v>15264</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>34728</v>
+        <v>34801</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>17800</v>
+        <v>17075</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>24081</v>
+        <v>24266</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>57585</v>
+        <v>56232</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>26724</v>
+        <v>26416</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>43055</v>
+        <v>43228</v>
       </c>
     </row>
     <row r="15">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>37249</v>
+        <v>37503</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>19401</v>
+        <v>20435</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>36278</v>
+        <v>34808</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>61797</v>
+        <v>61459</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>37427</v>
+        <v>36483</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>43763</v>
+        <v>42764</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>92572</v>
+        <v>91597</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>49624</v>
+        <v>50109</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>71333</v>
+        <v>71923</v>
       </c>
     </row>
     <row r="16">
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>9009</v>
+        <v>9071</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>12377</v>
+        <v>12248</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>24695</v>
+        <v>24496</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>35022</v>
+        <v>35507</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>37496</v>
+        <v>38329</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>49977</v>
+        <v>50157</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>48332</v>
+        <v>47761</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>54725</v>
+        <v>54883</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>79487</v>
+        <v>80814</v>
       </c>
     </row>
     <row r="19">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>25123</v>
+        <v>27567</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>30650</v>
+        <v>29698</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>48656</v>
+        <v>49564</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>62029</v>
+        <v>64457</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>67017</v>
+        <v>65332</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>74926</v>
+        <v>74292</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>80548</v>
+        <v>80466</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>87814</v>
+        <v>87796</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>113114</v>
+        <v>115343</v>
       </c>
     </row>
     <row r="20">
@@ -2305,31 +2305,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>11151</v>
+        <v>11123</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>10866</v>
+        <v>10320</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>23581</v>
+        <v>23526</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>46492</v>
+        <v>46733</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>44377</v>
+        <v>42436</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>60992</v>
+        <v>60749</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>62268</v>
+        <v>62175</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>59328</v>
+        <v>57495</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>89548</v>
+        <v>89139</v>
       </c>
     </row>
     <row r="23">
@@ -2340,31 +2340,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>28036</v>
+        <v>28101</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>28517</v>
+        <v>28628</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>44157</v>
+        <v>45421</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>75675</v>
+        <v>75261</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>73240</v>
+        <v>73409</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>85150</v>
+        <v>85903</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>94998</v>
+        <v>96945</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>94721</v>
+        <v>94173</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>124283</v>
+        <v>122575</v>
       </c>
     </row>
     <row r="24">
@@ -2449,31 +2449,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>5989</v>
+        <v>5247</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>7032</v>
+        <v>7013</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>40548</v>
+        <v>39447</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>30980</v>
+        <v>32393</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>36810</v>
+        <v>36126</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>50141</v>
+        <v>49647</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>35435</v>
+        <v>35189</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>46028</v>
+        <v>45966</v>
       </c>
     </row>
     <row r="27">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>20343</v>
+        <v>20846</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>9762</v>
+        <v>8973</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>18456</v>
+        <v>18153</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>67072</v>
+        <v>66215</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>55994</v>
+        <v>56986</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>56514</v>
+        <v>54880</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>83364</v>
+        <v>81016</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>61845</v>
+        <v>62421</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>68764</v>
+        <v>68922</v>
       </c>
     </row>
     <row r="28">
@@ -2593,31 +2593,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>4263</v>
+        <v>4308</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>5667</v>
+        <v>5802</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>10561</v>
+        <v>10099</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>45300</v>
+        <v>45803</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>34368</v>
+        <v>33467</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>41833</v>
+        <v>42124</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>52927</v>
+        <v>53011</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>42005</v>
+        <v>42145</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>56511</v>
+        <v>56633</v>
       </c>
     </row>
     <row r="31">
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>19064</v>
+        <v>18191</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>16531</v>
+        <v>16579</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>24882</v>
+        <v>23756</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>74736</v>
+        <v>73176</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>61894</v>
+        <v>61865</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>63126</v>
+        <v>62785</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>86359</v>
+        <v>86549</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>74276</v>
+        <v>72898</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>79746</v>
+        <v>81354</v>
       </c>
     </row>
     <row r="32">
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>66619</v>
+        <v>66696</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>52605</v>
+        <v>50427</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>113408</v>
+        <v>111675</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>254658</v>
+        <v>249745</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>207684</v>
+        <v>209457</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>271796</v>
+        <v>273976</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>331951</v>
+        <v>332493</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>272390</v>
+        <v>268225</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>398896</v>
+        <v>393024</v>
       </c>
     </row>
     <row r="35">
@@ -2772,31 +2772,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>104087</v>
+        <v>106661</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>85342</v>
+        <v>83049</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>160831</v>
+        <v>162312</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>318538</v>
+        <v>318626</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>274709</v>
+        <v>272707</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>328182</v>
+        <v>331084</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>409461</v>
+        <v>409132</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>340167</v>
+        <v>340343</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>475673</v>
+        <v>470504</v>
       </c>
     </row>
     <row r="36">
